--- a/Daily Status/Selenium Daily Task Status.xlsx
+++ b/Daily Status/Selenium Daily Task Status.xlsx
@@ -5,10 +5,11 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9795" tabRatio="500"/>
+    <workbookView windowWidth="21600" windowHeight="9795" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20-03-2023" sheetId="1" r:id="rId1"/>
+    <sheet name="21-03-2023" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -53,10 +54,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -78,6 +79,56 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -86,24 +137,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,66 +176,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -191,31 +192,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,181 +239,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,6 +448,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -458,15 +468,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,138 +548,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1017,7 +1018,7 @@
   <sheetPr/>
   <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1083,4 +1084,20 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Daily Status/Selenium Daily Task Status.xlsx
+++ b/Daily Status/Selenium Daily Task Status.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t xml:space="preserve">Task </t>
   </si>
@@ -54,10 +54,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -79,6 +79,49 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -94,6 +137,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -101,55 +153,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,17 +184,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,13 +215,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -208,23 +224,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,13 +239,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,169 +341,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,6 +457,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -481,6 +496,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -498,24 +522,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,152 +545,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -689,13 +689,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1019,7 +1019,7 @@
   <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5428571428571" defaultRowHeight="12.75" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1040,10 +1040,10 @@
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1051,16 +1051,16 @@
       </c>
     </row>
     <row r="4" ht="25.5" spans="2:4">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" ht="25.5" spans="2:3">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
@@ -1068,7 +1068,7 @@
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="4"/>
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1089,14 +1089,55 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B3:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="3" width="23.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="43.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="38.25" spans="2:4">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="2"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D4:D6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" display="https://github.com/Rajat1611/Selenium-Project.git"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
